--- a/100_sally.xlsx
+++ b/100_sally.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lo918290Ca\Documents\GitHub\lcarter2.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11996DA0-A23D-4F0D-A311-6A17698AEDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1F5E73-FB35-429E-8D52-A475689D4FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{89970048-3AA7-4F3D-AA32-8E4BE814E072}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Form" sheetId="1" r:id="rId1"/>
+    <sheet name="Job" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -385,7 +386,7 @@
   <dimension ref="C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,4 +399,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D39AD0A-B4B1-4D36-9C4A-FAE97A42B268}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>